--- a/outcomes/task1_analysis.xlsx
+++ b/outcomes/task1_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danigomezlechonbarrachina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AEE590-D96C-0443-86C9-F0839116DD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B90278-A267-7F4B-B27C-9A94644F7FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{1FC5846D-6D05-B24A-92AA-15CDFD3BBB41}"/>
   </bookViews>
@@ -16,6 +16,15 @@
     <sheet name="Launch day calculation" sheetId="1" r:id="rId1"/>
     <sheet name="P&amp;L projection" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'P&amp;L projection'!$G$10:$G$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'P&amp;L projection'!$G$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'P&amp;L projection'!$M$10:$M$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'P&amp;L projection'!$M$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'P&amp;L projection'!$G$10:$G$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'P&amp;L projection'!$M$10:$M$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'P&amp;L projection'!$M$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Cadiz population</t>
   </si>
@@ -159,6 +168,69 @@
   </si>
   <si>
     <t>Salary/hour</t>
+  </si>
+  <si>
+    <t>Launch (week number)</t>
+  </si>
+  <si>
+    <t>Initial amount of couriers</t>
+  </si>
+  <si>
+    <t>Initial amount of orders/week</t>
+  </si>
+  <si>
+    <t>Hours worked/week/courier</t>
+  </si>
+  <si>
+    <t>Weekly salary/courier</t>
+  </si>
+  <si>
+    <t>% of order kept by uber eats</t>
+  </si>
+  <si>
+    <t>Revenue w12</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Projections</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>clients/courier</t>
+  </si>
+  <si>
+    <t>cliens/restaurant</t>
+  </si>
+  <si>
+    <t>remains constant</t>
+  </si>
+  <si>
+    <t>eaters</t>
+  </si>
+  <si>
+    <t>orders/week</t>
+  </si>
+  <si>
+    <t>couriers</t>
+  </si>
+  <si>
+    <t>*remains constant</t>
   </si>
 </sst>
 </file>
@@ -185,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -244,6 +322,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -319,6 +408,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -342,25 +444,26 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -370,6 +473,23 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -378,6 +498,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF04914C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,6 +512,1108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0">
+                <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Profit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L projection'!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="04914C"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'P&amp;L projection'!$G$10:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L projection'!$M$10:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-40A]</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79B9-964E-BCFC-0994EF467D08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1756517808"/>
+        <c:axId val="1687884624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1756517808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="0" i="0">
+                    <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Week</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" b="0" i="0" baseline="0">
+                    <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" b="0" i="0">
+                  <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687884624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687884624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="0" i="0">
+                    <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Profit/Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00\ [$€-40A]" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gotham-Light" panose="02000604040000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756517808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +1760,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t>. Therefore I will put as average of 2 the orders a courier can cover in one hour.</a:t>
+            <a:t>. Therefore I will put as average of 3 the orders a courier can cover in one hour.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -763,6 +1990,197 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C63BE8-5639-EC4E-B64A-90944AA5BA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="2705100"/>
+          <a:ext cx="2667000" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>According</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> to previous assumptions we will need 17 restaurants and 12 couriers to meet the demand of 1000 clients. So lets see how many clients can a coruier/ restaurant cover</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDB7514-F1B7-5045-BF99-282EC474D3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4572000"/>
+          <a:ext cx="2667000" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Im</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> going to increase the customer growth rate to 100/ week + a 5 every month </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160868</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D863A8-1BB2-D4C7-00CB-D3A1D3B42247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1067,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DCEF4-A878-3A48-AC80-E2944BB358F1}">
   <dimension ref="B3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,12 +2513,11 @@
       <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <v>1000</v>
       </c>
-      <c r="H5" s="17">
-        <f>(1000/C12)</f>
-        <v>2.9252596167909903E-2</v>
+      <c r="H5" s="18">
+        <v>0.03</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1124,7 +2541,7 @@
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1167,7 +2584,7 @@
       <c r="F12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <f>G5*C21</f>
         <v>1000</v>
       </c>
@@ -1186,7 +2603,7 @@
       <c r="F15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="20">
         <f>G12/14</f>
         <v>71.428571428571431</v>
       </c>
@@ -1196,7 +2613,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
@@ -1205,7 +2622,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2">
@@ -1213,11 +2630,11 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2">
@@ -1228,15 +2645,18 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -1246,31 +2666,31 @@
       <c r="F22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="16">
         <f>(G12*0.4)/4</f>
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
       <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="22">
         <f>G22/C29</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="25">
         <f>ROUNDUP(G24,0)</f>
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2">
@@ -1278,22 +2698,22 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="2"/>
       <c r="F26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="22">
         <f>G22/C35</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="25">
         <f>ROUNDUP(G26,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
@@ -1301,11 +2721,11 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4">
@@ -1314,19 +2734,19 @@
     </row>
     <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="8"/>
       <c r="F31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="2">
@@ -1334,18 +2754,18 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2"/>
       <c r="F33" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="21">
         <f>G12/C17</f>
         <v>11.111111111111111</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="2">
@@ -1353,7 +2773,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="4">
@@ -1363,7 +2783,7 @@
       <c r="F35" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="25">
         <f>H24/C25</f>
         <v>8.5</v>
       </c>
@@ -1372,13 +2792,13 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="27">
         <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="26">
         <f>H26/C32</f>
         <v>4</v>
       </c>
@@ -1391,14 +2811,868 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C61459-CA42-AF41-8432-1D6829B5BACF}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="34">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="35">
+        <f>D6*D7*D11</f>
+        <v>3400</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="37">
+        <f>D10*D5</f>
+        <v>3528</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="30">
+        <f>'Launch day calculation'!H26</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="36">
+        <f>H3-H4</f>
+        <v>-128</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="31">
+        <f>'Launch day calculation'!G12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="32">
+        <f>'Launch day calculation'!C19</f>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="32">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="31">
+        <f>3*2*7</f>
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="32">
+        <f>D8*D9</f>
+        <v>294</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>'Launch day calculation'!G5</f>
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <f>H10*'Launch day calculation'!$C$21</f>
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="K10" s="27">
+        <f>I10*$D$7*$D$11</f>
+        <v>3400</v>
+      </c>
+      <c r="L10" s="27">
+        <f>J10*$D$10</f>
+        <v>3528</v>
+      </c>
+      <c r="M10" s="27">
+        <f>K10-L10</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <f>H10+100</f>
+        <v>1100</v>
+      </c>
+      <c r="I11">
+        <f>H11*'Launch day calculation'!$C$21</f>
+        <v>1100</v>
+      </c>
+      <c r="J11">
+        <f>IF(I11-I10&gt;D20,J10+1,J10)</f>
+        <v>13</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" ref="K11:K33" si="0">I11*$D$7*$D$11</f>
+        <v>3740</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" ref="L11:L33" si="1">J11*$D$10</f>
+        <v>3822</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" ref="M11:M33" si="2">K11-L11</f>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="3">H11+100</f>
+        <v>1200</v>
+      </c>
+      <c r="I12">
+        <f>H12*'Launch day calculation'!$C$21</f>
+        <v>1200</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J33" si="4">IF(I12-I11&gt;D21,J11+1,J11)</f>
+        <v>14</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="0"/>
+        <v>4080</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>4116</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="I13">
+        <f>H13*'Launch day calculation'!$C$21</f>
+        <v>1300</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="0"/>
+        <v>4420</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>4410</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <f>H13+105</f>
+        <v>1405</v>
+      </c>
+      <c r="I14">
+        <f>H14*'Launch day calculation'!$C$21</f>
+        <v>1405</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="0"/>
+        <v>4777</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>4704</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H17" si="5">H14+105</f>
+        <v>1510</v>
+      </c>
+      <c r="I15">
+        <f>H15*'Launch day calculation'!$C$21</f>
+        <v>1510</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="0"/>
+        <v>5134</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>4998</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>1615</v>
+      </c>
+      <c r="I16">
+        <f>H16*'Launch day calculation'!$C$21</f>
+        <v>1615</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="0"/>
+        <v>5491</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>5292</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>1720</v>
+      </c>
+      <c r="I17">
+        <f>H17*'Launch day calculation'!$C$21</f>
+        <v>1720</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="0"/>
+        <v>5848</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>5586</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f>H17+110</f>
+        <v>1830</v>
+      </c>
+      <c r="I18">
+        <f>H18*'Launch day calculation'!$C$21</f>
+        <v>1830</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="0"/>
+        <v>6222</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>5880</v>
+      </c>
+      <c r="M18" s="27">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H21" si="6">H18+110</f>
+        <v>1940</v>
+      </c>
+      <c r="I19">
+        <f>H19*'Launch day calculation'!$C$21</f>
+        <v>1940</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="0"/>
+        <v>6596</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="1"/>
+        <v>6174</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="41">
+        <f>'Launch day calculation'!$G$5/'Launch day calculation'!$H$26</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="I20">
+        <f>H20*'Launch day calculation'!$C$21</f>
+        <v>2050</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="0"/>
+        <v>6970</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="1"/>
+        <v>6468</v>
+      </c>
+      <c r="M20" s="27">
+        <f t="shared" si="2"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="42">
+        <f>'Launch day calculation'!G5/'Launch day calculation'!H24</f>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="I21">
+        <f>H21*'Launch day calculation'!$C$21</f>
+        <v>2160</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="0"/>
+        <v>7344</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="1"/>
+        <v>6762</v>
+      </c>
+      <c r="M21" s="27">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <f>H21+115</f>
+        <v>2275</v>
+      </c>
+      <c r="I22">
+        <f>H22*'Launch day calculation'!$C$21</f>
+        <v>2275</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K22" s="27">
+        <f t="shared" si="0"/>
+        <v>7735</v>
+      </c>
+      <c r="L22" s="27">
+        <f t="shared" si="1"/>
+        <v>7056</v>
+      </c>
+      <c r="M22" s="27">
+        <f t="shared" si="2"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H25" si="7">H22+115</f>
+        <v>2390</v>
+      </c>
+      <c r="I23">
+        <f>H23*'Launch day calculation'!$C$21</f>
+        <v>2390</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="0"/>
+        <v>8126</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="1"/>
+        <v>7350</v>
+      </c>
+      <c r="M23" s="27">
+        <f t="shared" si="2"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>2505</v>
+      </c>
+      <c r="I24">
+        <f>H24*'Launch day calculation'!$C$21</f>
+        <v>2505</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="0"/>
+        <v>8517</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="1"/>
+        <v>7644</v>
+      </c>
+      <c r="M24" s="27">
+        <f t="shared" si="2"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>2620</v>
+      </c>
+      <c r="I25">
+        <f>H25*'Launch day calculation'!$C$21</f>
+        <v>2620</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K25" s="27">
+        <f t="shared" si="0"/>
+        <v>8908</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="1"/>
+        <v>7938</v>
+      </c>
+      <c r="M25" s="27">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <f>H25+120</f>
+        <v>2740</v>
+      </c>
+      <c r="I26">
+        <f>H26*'Launch day calculation'!$C$21</f>
+        <v>2740</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="K26" s="27">
+        <f t="shared" si="0"/>
+        <v>9316</v>
+      </c>
+      <c r="L26" s="27">
+        <f t="shared" si="1"/>
+        <v>8232</v>
+      </c>
+      <c r="M26" s="27">
+        <f t="shared" si="2"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="8">H26+120</f>
+        <v>2860</v>
+      </c>
+      <c r="I27">
+        <f>H27*'Launch day calculation'!$C$21</f>
+        <v>2860</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="0"/>
+        <v>9724</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="1"/>
+        <v>8526</v>
+      </c>
+      <c r="M27" s="27">
+        <f t="shared" si="2"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>2980</v>
+      </c>
+      <c r="I28">
+        <f>H28*'Launch day calculation'!$C$21</f>
+        <v>2980</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="0"/>
+        <v>10132</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="1"/>
+        <v>8820</v>
+      </c>
+      <c r="M28" s="27">
+        <f t="shared" si="2"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>3100</v>
+      </c>
+      <c r="I29">
+        <f>H29*'Launch day calculation'!$C$21</f>
+        <v>3100</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="K29" s="27">
+        <f t="shared" si="0"/>
+        <v>10540</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="1"/>
+        <v>9114</v>
+      </c>
+      <c r="M29" s="27">
+        <f t="shared" si="2"/>
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <f>H29+125</f>
+        <v>3225</v>
+      </c>
+      <c r="I30">
+        <f>H30*'Launch day calculation'!$C$21</f>
+        <v>3225</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K30" s="27">
+        <f t="shared" si="0"/>
+        <v>10965</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="1"/>
+        <v>9408</v>
+      </c>
+      <c r="M30" s="27">
+        <f t="shared" si="2"/>
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H33" si="9">H30+125</f>
+        <v>3350</v>
+      </c>
+      <c r="I31">
+        <f>H31*'Launch day calculation'!$C$21</f>
+        <v>3350</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="K31" s="27">
+        <f>I31*$D$7*$D$11</f>
+        <v>11390</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="1"/>
+        <v>9702</v>
+      </c>
+      <c r="M31" s="27">
+        <f t="shared" si="2"/>
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>3475</v>
+      </c>
+      <c r="I32">
+        <f>H32*'Launch day calculation'!$C$21</f>
+        <v>3475</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="0"/>
+        <v>11815</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="1"/>
+        <v>9996</v>
+      </c>
+      <c r="M32" s="27">
+        <f t="shared" si="2"/>
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>3600</v>
+      </c>
+      <c r="I33">
+        <f>H33*'Launch day calculation'!$C$21</f>
+        <v>3600</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="0"/>
+        <v>12240</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="1"/>
+        <v>10290</v>
+      </c>
+      <c r="M33" s="27">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>